--- a/氣象性能評估工具V2/data/obs/backup/2016-06-20_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-20_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-20 00:00:00</t>
+    <t>2016-06-20-00</t>
   </si>
   <si>
     <t>21.8</t>
@@ -166,7 +166,7 @@
     <t>28.8</t>
   </si>
   <si>
-    <t>2016-06-20 01:00:00</t>
+    <t>2016-06-20-01</t>
   </si>
   <si>
     <t>22.2</t>
@@ -208,7 +208,7 @@
     <t>27.2</t>
   </si>
   <si>
-    <t>2016-06-20 02:00:00</t>
+    <t>2016-06-20-02</t>
   </si>
   <si>
     <t>23.0</t>
@@ -232,7 +232,7 @@
     <t>27.9</t>
   </si>
   <si>
-    <t>2016-06-20 03:00:00</t>
+    <t>2016-06-20-03</t>
   </si>
   <si>
     <t>20.5</t>
@@ -262,7 +262,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>2016-06-20 04:00:00</t>
+    <t>2016-06-20-04</t>
   </si>
   <si>
     <t>20.4</t>
@@ -289,7 +289,7 @@
     <t>25.8</t>
   </si>
   <si>
-    <t>2016-06-20 05:00:00</t>
+    <t>2016-06-20-05</t>
   </si>
   <si>
     <t>22.6</t>
@@ -301,7 +301,7 @@
     <t>7.7</t>
   </si>
   <si>
-    <t>2016-06-20 06:00:00</t>
+    <t>2016-06-20-06</t>
   </si>
   <si>
     <t>23.3</t>
@@ -319,7 +319,7 @@
     <t>7.9</t>
   </si>
   <si>
-    <t>2016-06-20 07:00:00</t>
+    <t>2016-06-20-07</t>
   </si>
   <si>
     <t>24.4</t>
@@ -364,7 +364,7 @@
     <t>30.9</t>
   </si>
   <si>
-    <t>2016-06-20 08:00:00</t>
+    <t>2016-06-20-08</t>
   </si>
   <si>
     <t>32.2</t>
@@ -397,7 +397,7 @@
     <t>31.4</t>
   </si>
   <si>
-    <t>2016-06-20 09:00:00</t>
+    <t>2016-06-20-09</t>
   </si>
   <si>
     <t>34.3</t>
@@ -430,7 +430,7 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>2016-06-20 10:00:00</t>
+    <t>2016-06-20-10</t>
   </si>
   <si>
     <t>35.6</t>
@@ -454,7 +454,7 @@
     <t>32.4</t>
   </si>
   <si>
-    <t>2016-06-20 11:00:00</t>
+    <t>2016-06-20-11</t>
   </si>
   <si>
     <t>35.7</t>
@@ -484,7 +484,7 @@
     <t>31.8</t>
   </si>
   <si>
-    <t>2016-06-20 12:00:00</t>
+    <t>2016-06-20-12</t>
   </si>
   <si>
     <t>34.0</t>
@@ -505,7 +505,7 @@
     <t>32.6</t>
   </si>
   <si>
-    <t>2016-06-20 13:00:00</t>
+    <t>2016-06-20-13</t>
   </si>
   <si>
     <t>28.5</t>
@@ -523,7 +523,7 @@
     <t>9.9</t>
   </si>
   <si>
-    <t>2016-06-20 14:00:00</t>
+    <t>2016-06-20-14</t>
   </si>
   <si>
     <t>23.9</t>
@@ -538,7 +538,7 @@
     <t>33.7</t>
   </si>
   <si>
-    <t>2016-06-20 15:00:00</t>
+    <t>2016-06-20-15</t>
   </si>
   <si>
     <t>26.2</t>
@@ -550,7 +550,7 @@
     <t>6.7</t>
   </si>
   <si>
-    <t>2016-06-20 16:00:00</t>
+    <t>2016-06-20-16</t>
   </si>
   <si>
     <t>24.9</t>
@@ -562,7 +562,7 @@
     <t>30.1</t>
   </si>
   <si>
-    <t>2016-06-20 17:00:00</t>
+    <t>2016-06-20-17</t>
   </si>
   <si>
     <t>23.5</t>
@@ -580,7 +580,7 @@
     <t>6.2</t>
   </si>
   <si>
-    <t>2016-06-20 18:00:00</t>
+    <t>2016-06-20-18</t>
   </si>
   <si>
     <t>20.0</t>
@@ -589,13 +589,13 @@
     <t>13.5</t>
   </si>
   <si>
-    <t>2016-06-20 19:00:00</t>
+    <t>2016-06-20-19</t>
   </si>
   <si>
     <t>6.6</t>
   </si>
   <si>
-    <t>2016-06-20 20:00:00</t>
+    <t>2016-06-20-20</t>
   </si>
   <si>
     <t>23.6</t>
@@ -613,7 +613,7 @@
     <t>29.2</t>
   </si>
   <si>
-    <t>2016-06-20 21:00:00</t>
+    <t>2016-06-20-21</t>
   </si>
   <si>
     <t>22.4</t>
@@ -628,7 +628,7 @@
     <t>7.2</t>
   </si>
   <si>
-    <t>2016-06-20 22:00:00</t>
+    <t>2016-06-20-22</t>
   </si>
   <si>
     <t>11.8</t>
@@ -637,7 +637,7 @@
     <t>25.4</t>
   </si>
   <si>
-    <t>2016-06-20 23:00:00</t>
+    <t>2016-06-20-23</t>
   </si>
   <si>
     <t>21.9</t>
